--- a/Val_Player_Data.xlsx
+++ b/Val_Player_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,896 +436,876 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>RND</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RND</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>ACS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ACS</t>
+          <t>K:D</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>K:D</t>
+          <t>ADR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ADR</t>
+          <t>KAST</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>KAST</t>
+          <t>KPR</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>KPR</t>
+          <t>APR</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>APR</t>
+          <t>FKPR</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FKPR</t>
+          <t>FDPR</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FDPR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>FK</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
           <t>FD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>(214) 57%</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>4469</v>
+      </c>
       <c r="C2" t="n">
-        <v>4469</v>
+        <v>1.16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>263.8</v>
       </c>
       <c r="E2" t="n">
-        <v>263.8</v>
+        <v>1.31</v>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G2" t="n">
         <v>156.4</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>72%</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>0.92</v>
+      </c>
       <c r="I2" t="n">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="L2" t="n">
+        <v>4112</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3135</v>
+      </c>
+      <c r="N2" t="n">
+        <v>903</v>
+      </c>
+      <c r="O2" t="n">
+        <v>933</v>
+      </c>
+      <c r="P2" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(66) 18%</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1325</v>
+      </c>
+      <c r="M3" t="n">
+        <v>892</v>
+      </c>
+      <c r="N3" t="n">
+        <v>385</v>
+      </c>
+      <c r="O3" t="n">
+        <v>253</v>
+      </c>
+      <c r="P3" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(33) 9%</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>713</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D4" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>642</v>
+      </c>
+      <c r="M4" t="n">
+        <v>548</v>
+      </c>
+      <c r="N4" t="n">
+        <v>190</v>
+      </c>
+      <c r="O4" t="n">
+        <v>130</v>
+      </c>
+      <c r="P4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(14) 4%</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>301</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>212</v>
+      </c>
+      <c r="M5" t="n">
+        <v>201</v>
+      </c>
+      <c r="N5" t="n">
+        <v>133</v>
+      </c>
+      <c r="O5" t="n">
+        <v>32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(13) 3%</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>276</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>224</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>207</v>
+      </c>
+      <c r="M6" t="n">
+        <v>205</v>
+      </c>
+      <c r="N6" t="n">
+        <v>179</v>
+      </c>
+      <c r="O6" t="n">
+        <v>31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(10) 3%</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>204</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D7" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>163</v>
+      </c>
+      <c r="M7" t="n">
+        <v>152</v>
+      </c>
+      <c r="N7" t="n">
+        <v>60</v>
+      </c>
+      <c r="O7" t="n">
+        <v>36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(8) 2%</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.14</v>
       </c>
-      <c r="M2" t="n">
-        <v>4112</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3135</v>
-      </c>
-      <c r="O2" t="n">
-        <v>903</v>
-      </c>
-      <c r="P2" t="n">
-        <v>933</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(66) 18%</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1332</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="K8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>174</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(5) 1%</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.29</v>
       </c>
-      <c r="E3" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G3" t="n">
-        <v>173.8</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1325</v>
-      </c>
-      <c r="N3" t="n">
-        <v>892</v>
-      </c>
-      <c r="O3" t="n">
-        <v>385</v>
-      </c>
-      <c r="P3" t="n">
-        <v>253</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(33) 9%</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>713</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E4" t="n">
-        <v>277.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>168.9</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>69%</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M4" t="n">
-        <v>642</v>
-      </c>
-      <c r="N4" t="n">
-        <v>548</v>
-      </c>
-      <c r="O4" t="n">
-        <v>190</v>
-      </c>
-      <c r="P4" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(14) 4%</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>301</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E5" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>134.2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>212</v>
-      </c>
-      <c r="N5" t="n">
-        <v>201</v>
-      </c>
-      <c r="O5" t="n">
-        <v>133</v>
-      </c>
-      <c r="P5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(13) 3%</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>276</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>224</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M6" t="n">
-        <v>207</v>
-      </c>
-      <c r="N6" t="n">
-        <v>205</v>
-      </c>
-      <c r="O6" t="n">
-        <v>179</v>
-      </c>
-      <c r="P6" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(10) 3%</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>204</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E7" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G7" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M7" t="n">
-        <v>163</v>
-      </c>
-      <c r="N7" t="n">
-        <v>152</v>
-      </c>
-      <c r="O7" t="n">
-        <v>60</v>
-      </c>
-      <c r="P7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(8) 2%</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>208</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E8" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>174</v>
-      </c>
-      <c r="N8" t="n">
-        <v>145</v>
-      </c>
-      <c r="O8" t="n">
-        <v>22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(5) 1%</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>124</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>218.6</v>
-      </c>
       <c r="F9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G9" t="n">
         <v>146.4</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>74%</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="I9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="J9" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="K9" t="n">
         <v>0.02</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="N9" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O9" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>(4) 1%</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9399999999999999</v>
+        <v>261.3</v>
       </c>
       <c r="E10" t="n">
-        <v>261.3</v>
+        <v>1.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G10" t="n">
         <v>128.7</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>63%</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>0.93</v>
+      </c>
       <c r="I10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L10" t="n">
+        <v>84</v>
+      </c>
+      <c r="M10" t="n">
+        <v>67</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(3) 1%</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>274.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>0.93</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M10" t="n">
-        <v>84</v>
-      </c>
-      <c r="N10" t="n">
-        <v>67</v>
-      </c>
-      <c r="O10" t="n">
-        <v>20</v>
-      </c>
-      <c r="P10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(3) 1%</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>56</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>274.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K11" t="n">
         <v>0.11</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>52</v>
+      </c>
       <c r="M11" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>(1) 0%</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>255</v>
+      </c>
       <c r="E12" t="n">
-        <v>255</v>
+        <v>1.71</v>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G12" t="n">
         <v>149.8</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="K12" t="n">
         <v>0.13</v>
       </c>
       <c r="L12" t="n">
-        <v>0.13</v>
+        <v>24</v>
       </c>
       <c r="M12" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>(1) 0%</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>0.97</v>
       </c>
       <c r="D13" t="n">
-        <v>0.97</v>
+        <v>208</v>
       </c>
       <c r="E13" t="n">
-        <v>208</v>
+        <v>0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G13" t="n">
         <v>140.1</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>65%</t>
         </is>
       </c>
+      <c r="H13" t="n">
+        <v>0.62</v>
+      </c>
       <c r="I13" t="n">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="J13" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="K13" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="L13" t="n">
-        <v>0.19</v>
+        <v>16</v>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(1) 0%</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>18</v>
       </c>
-      <c r="O13" t="n">
-        <v>9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>(1) 0%</t>
-        </is>
-      </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>0.98</v>
       </c>
       <c r="D14" t="n">
-        <v>0.98</v>
+        <v>227</v>
       </c>
       <c r="E14" t="n">
-        <v>227</v>
+        <v>1.07</v>
       </c>
       <c r="F14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G14" t="n">
         <v>171.9</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>72%</t>
         </is>
       </c>
+      <c r="H14" t="n">
+        <v>0.83</v>
+      </c>
       <c r="I14" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="J14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>15</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>15</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>(1) 0%</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>1.14</v>
       </c>
       <c r="D15" t="n">
-        <v>1.14</v>
+        <v>281</v>
       </c>
       <c r="E15" t="n">
-        <v>281</v>
+        <v>1.16</v>
       </c>
       <c r="F15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G15" t="n">
         <v>178.5</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>67%</t>
         </is>
       </c>
+      <c r="H15" t="n">
+        <v>0.92</v>
+      </c>
       <c r="I15" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="J15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.21</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.13</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.21</v>
+        <v>22</v>
       </c>
       <c r="M15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>(1) 0%</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>1.07</v>
       </c>
       <c r="D16" t="n">
-        <v>1.07</v>
+        <v>295</v>
       </c>
       <c r="E16" t="n">
-        <v>295</v>
+        <v>1.08</v>
       </c>
       <c r="F16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G16" t="n">
         <v>204.9</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>57%</t>
         </is>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="L16" t="n">
-        <v>0.14</v>
+        <v>14</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
         <v>2</v>
       </c>
     </row>
